--- a/hours_breakdown.xlsx
+++ b/hours_breakdown.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\gitbook_stats12\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45531AB5-813A-49AF-9A21-41DA9E112B5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A826082-1E39-4C1D-9FEC-29634AE16A88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{E4CDC2D5-1892-4563-A39A-FDB31CF22C76}"/>
   </bookViews>
@@ -62,9 +62,6 @@
     <t>Total</t>
   </si>
   <si>
-    <t>168hrs (6 ECTS)</t>
-  </si>
-  <si>
     <t>Formative tests</t>
   </si>
   <si>
@@ -84,6 +81,9 @@
   </si>
   <si>
     <t>Studying</t>
+  </si>
+  <si>
+    <t>ECTS</t>
   </si>
 </sst>
 </file>
@@ -435,23 +435,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52635F8E-ED31-4C6A-BAF2-2F78DCBD9E37}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="D16" sqref="A1:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>11</v>
-      </c>
-      <c r="C1" t="s">
-        <v>12</v>
       </c>
       <c r="D1" t="s">
         <v>7</v>
@@ -511,7 +514,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -539,7 +542,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -559,7 +562,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13">
         <v>10</v>
@@ -573,7 +576,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14">
         <v>3</v>
@@ -589,12 +592,18 @@
       <c r="A15" t="s">
         <v>7</v>
       </c>
-      <c r="B15" t="s">
-        <v>8</v>
-      </c>
       <c r="D15">
         <f>SUM(D3:D14)</f>
         <v>168</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16">
+        <f>D15/28</f>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/hours_breakdown.xlsx
+++ b/hours_breakdown.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\gitbook_stats12\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A826082-1E39-4C1D-9FEC-29634AE16A88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E670227-39DB-4CC1-A1B6-7BF02F70947A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{E4CDC2D5-1892-4563-A39A-FDB31CF22C76}"/>
   </bookViews>
@@ -139,9 +139,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -179,7 +179,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -285,7 +285,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -427,7 +427,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -438,7 +438,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="A1:D16"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -565,10 +565,10 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13">
         <v>30</v>
@@ -579,10 +579,10 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D14">
         <v>3</v>
